--- a/biology/Mycologie/Suillus_placidus/Suillus_placidus.xlsx
+++ b/biology/Mycologie/Suillus_placidus/Suillus_placidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bolet ivoire, Bolet placide, Bolet agréable
-Suillus placidus, le Bolet ivoire, est une espèce rare de champignon (Fungi) basidiomycète du genre Suillus. C'est une espèce quasi menacée[1]. Il est caractérisé par ses teintes blanches, son pied plutôt long pour un Suillus et son habitat sous pins à 5 aiguilles.
+Suillus placidus, le Bolet ivoire, est une espèce rare de champignon (Fungi) basidiomycète du genre Suillus. C'est une espèce quasi menacée. Il est caractérisé par ses teintes blanches, son pied plutôt long pour un Suillus et son habitat sous pins à 5 aiguilles.
 </t>
         </is>
       </c>
@@ -512,58 +524,55 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus placidus (Bonord.) Singer, 1945[2].
-L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus placidus Bonord., 1861[2].
-Synonymes
-Suillus placidus a pour synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Suillus placidus (Bonord.) Singer, 1945.
+L'espèce a été initialement classée dans le genre Boletus sous le basionyme Boletus placidus Bonord., 1861.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Suillus placidus a pour synonymes :
 Boletus placidus Bonord., 1861
 Gyrodon placidus (Bonord.) Fr.
 Ixocomus placidus (Bonord.) E.-J. Gilbert, 1931
 Suillus plorans subsp. placidus (Bonord.) Pilát (1959), 1959
 Suillus plorans subsp. placidus (Bonord.) Pilát (1961), 1961
-Uloporus placidus (Bonorden) Quélet, 1886
-Noms vulgaires et vernaculaires
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet ivoire[3],[4], bolet agréable[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Suillus_placidus</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Suillus_placidus</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description du sporophore</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus placidus, le Bolet ivoire, sont les suivantes :
-Son chapeau mesure 4 à 14 cm, il est très visqueux, blanc d'ivoire à crème[5].
-L'hyménophore présente des tubes blancs à crème. Les pores sont fins à moyens, concolores aux tubes puis moutarde[5].
-Son stipe mesure 6 à 15 cm x 1 à 2,5 cm, blanc à blanc crème puis rapidement avec des granulations brun-rouge sur toute la surface[5].
-La chair est blanche. Sa saveur est douce et son odeur est mêlée de Cèpe et de caoutchouc[5].
-Caractéristiques microscopiques
-Ses spores mesurent 7,5 à 10 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes[6].
-</t>
+Uloporus placidus (Bonorden) Quélet, 1886</t>
         </is>
       </c>
     </row>
@@ -588,12 +597,125 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Bolet ivoire bolet agréable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bolets sont des champignons dont l'hyménophore, constitué de tubes et terminés par des pores, se sépare facilement de la chair du chapeau. Ce chapeau d'abord rond, recouvert d'une cuticule, devient convexe à mesure qu’il vieillit. Ils ont un pied (stipe) central assez épais et une chair compacte. Les caractéristiques de Suillus placidus, le Bolet ivoire, sont les suivantes :
+Son chapeau mesure 4 à 14 cm, il est très visqueux, blanc d'ivoire à crème.
+L'hyménophore présente des tubes blancs à crème. Les pores sont fins à moyens, concolores aux tubes puis moutarde.
+Son stipe mesure 6 à 15 cm x 1 à 2,5 cm, blanc à blanc crème puis rapidement avec des granulations brun-rouge sur toute la surface.
+La chair est blanche. Sa saveur est douce et son odeur est mêlée de Cèpe et de caoutchouc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description du sporophore</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractéristiques microscopiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses spores mesurent 7,5 à 10 μm x 3 à 4 μm, elles sont elliptiques-fusoïdes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Suillus_placidus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Variétés et formes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suillus placidus var. fusipes pousse sous Pinus cembra et a une réaction subnulle à l'ammoniaque[6].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suillus placidus var. fusipes pousse sous Pinus cembra et a une réaction subnulle à l'ammoniaque.
 </t>
         </is>
       </c>
